--- a/Data/Raw files/aboveground_longform_v3.xlsx
+++ b/Data/Raw files/aboveground_longform_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinmathias/Desktop/Working NCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinmathias/Dropbox/Research/UIdaho Postdoc/NCCFireReview/Data/Raw files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50CA16D-6FF7-294C-B632-57F4DEB885A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F926D4-9E43-7E40-B3CB-C6D44A81F882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="2420" windowWidth="27320" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aboveground_longform_v3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10174" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10137" uniqueCount="1363">
   <si>
     <t>RecordID</t>
   </si>
@@ -4952,10 +4952,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1:AR1048576"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4967,7 +4967,7 @@
     <col min="5" max="5" width="70.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="227.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="164.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
@@ -11700,9 +11700,6 @@
       <c r="J59" t="s">
         <v>238</v>
       </c>
-      <c r="K59" t="s">
-        <v>84</v>
-      </c>
       <c r="L59" t="s">
         <v>174</v>
       </c>
@@ -11810,9 +11807,6 @@
       <c r="J60" t="s">
         <v>238</v>
       </c>
-      <c r="K60" t="s">
-        <v>84</v>
-      </c>
       <c r="L60" t="s">
         <v>174</v>
       </c>
@@ -11920,9 +11914,6 @@
       <c r="J61" t="s">
         <v>238</v>
       </c>
-      <c r="K61" t="s">
-        <v>84</v>
-      </c>
       <c r="L61" t="s">
         <v>174</v>
       </c>
@@ -12027,9 +12018,6 @@
       <c r="J62" t="s">
         <v>238</v>
       </c>
-      <c r="K62" t="s">
-        <v>84</v>
-      </c>
       <c r="L62" t="s">
         <v>174</v>
       </c>
@@ -15018,9 +15006,6 @@
       <c r="J89" t="s">
         <v>322</v>
       </c>
-      <c r="K89" t="s">
-        <v>84</v>
-      </c>
       <c r="L89" t="s">
         <v>174</v>
       </c>
@@ -15128,9 +15113,6 @@
       <c r="J90" t="s">
         <v>322</v>
       </c>
-      <c r="K90" t="s">
-        <v>84</v>
-      </c>
       <c r="L90" t="s">
         <v>174</v>
       </c>
@@ -15235,9 +15217,6 @@
       <c r="J91" t="s">
         <v>322</v>
       </c>
-      <c r="K91" t="s">
-        <v>84</v>
-      </c>
       <c r="L91" t="s">
         <v>174</v>
       </c>
@@ -18187,9 +18166,6 @@
       <c r="J118" t="s">
         <v>406</v>
       </c>
-      <c r="K118" t="s">
-        <v>84</v>
-      </c>
       <c r="L118" t="s">
         <v>407</v>
       </c>
@@ -18312,9 +18288,6 @@
       <c r="J119" t="s">
         <v>406</v>
       </c>
-      <c r="K119" t="s">
-        <v>84</v>
-      </c>
       <c r="L119" t="s">
         <v>407</v>
       </c>
@@ -23378,9 +23351,6 @@
       <c r="J165" t="s">
         <v>562</v>
       </c>
-      <c r="K165" t="s">
-        <v>84</v>
-      </c>
       <c r="L165" t="s">
         <v>552</v>
       </c>
@@ -23479,9 +23449,6 @@
       <c r="J166" t="s">
         <v>562</v>
       </c>
-      <c r="K166" t="s">
-        <v>84</v>
-      </c>
       <c r="L166" t="s">
         <v>552</v>
       </c>
@@ -58728,9 +58695,6 @@
       <c r="J482" t="s">
         <v>1076</v>
       </c>
-      <c r="K482" t="s">
-        <v>84</v>
-      </c>
       <c r="L482" t="s">
         <v>1077</v>
       </c>
@@ -58850,9 +58814,6 @@
       <c r="J483" t="s">
         <v>1076</v>
       </c>
-      <c r="K483" t="s">
-        <v>84</v>
-      </c>
       <c r="L483" t="s">
         <v>1077</v>
       </c>
@@ -58969,9 +58930,6 @@
       <c r="J484" t="s">
         <v>1076</v>
       </c>
-      <c r="K484" t="s">
-        <v>84</v>
-      </c>
       <c r="L484" t="s">
         <v>1077</v>
       </c>
@@ -59091,9 +59049,6 @@
       <c r="J485" t="s">
         <v>1076</v>
       </c>
-      <c r="K485" t="s">
-        <v>84</v>
-      </c>
       <c r="L485" t="s">
         <v>1077</v>
       </c>
@@ -59210,9 +59165,6 @@
       <c r="J486" t="s">
         <v>1085</v>
       </c>
-      <c r="K486" t="s">
-        <v>84</v>
-      </c>
       <c r="L486" t="s">
         <v>123</v>
       </c>
@@ -59311,9 +59263,6 @@
       <c r="J487" t="s">
         <v>1085</v>
       </c>
-      <c r="K487" t="s">
-        <v>84</v>
-      </c>
       <c r="L487" t="s">
         <v>123</v>
       </c>
@@ -59415,9 +59364,6 @@
       <c r="J488" t="s">
         <v>1089</v>
       </c>
-      <c r="K488" t="s">
-        <v>84</v>
-      </c>
       <c r="L488" t="s">
         <v>505</v>
       </c>
@@ -59525,9 +59471,6 @@
       <c r="J489" t="s">
         <v>1089</v>
       </c>
-      <c r="K489" t="s">
-        <v>84</v>
-      </c>
       <c r="L489" t="s">
         <v>505</v>
       </c>
@@ -59635,9 +59578,6 @@
       <c r="J490" t="s">
         <v>1089</v>
       </c>
-      <c r="K490" t="s">
-        <v>84</v>
-      </c>
       <c r="L490" t="s">
         <v>505</v>
       </c>
@@ -59745,9 +59685,6 @@
       <c r="J491" t="s">
         <v>1089</v>
       </c>
-      <c r="K491" t="s">
-        <v>84</v>
-      </c>
       <c r="L491" t="s">
         <v>505</v>
       </c>
@@ -59855,9 +59792,6 @@
       <c r="J492" t="s">
         <v>1094</v>
       </c>
-      <c r="K492" t="s">
-        <v>84</v>
-      </c>
       <c r="L492" t="s">
         <v>1095</v>
       </c>
@@ -59965,9 +59899,6 @@
       <c r="J493" t="s">
         <v>1094</v>
       </c>
-      <c r="K493" t="s">
-        <v>84</v>
-      </c>
       <c r="L493" t="s">
         <v>1095</v>
       </c>
@@ -60075,9 +60006,6 @@
       <c r="J494" t="s">
         <v>1094</v>
       </c>
-      <c r="K494" t="s">
-        <v>84</v>
-      </c>
       <c r="L494" t="s">
         <v>1095</v>
       </c>
@@ -60185,9 +60113,6 @@
       <c r="J495" t="s">
         <v>1094</v>
       </c>
-      <c r="K495" t="s">
-        <v>84</v>
-      </c>
       <c r="L495" t="s">
         <v>1095</v>
       </c>
@@ -60295,9 +60220,6 @@
       <c r="J496" t="s">
         <v>1094</v>
       </c>
-      <c r="K496" t="s">
-        <v>84</v>
-      </c>
       <c r="L496" t="s">
         <v>1095</v>
       </c>
@@ -60405,9 +60327,6 @@
       <c r="J497" t="s">
         <v>1094</v>
       </c>
-      <c r="K497" t="s">
-        <v>84</v>
-      </c>
       <c r="L497" t="s">
         <v>1095</v>
       </c>
@@ -60515,9 +60434,6 @@
       <c r="J498" t="s">
         <v>1094</v>
       </c>
-      <c r="K498" t="s">
-        <v>84</v>
-      </c>
       <c r="L498" t="s">
         <v>1095</v>
       </c>
@@ -60625,9 +60541,6 @@
       <c r="J499" t="s">
         <v>1094</v>
       </c>
-      <c r="K499" t="s">
-        <v>84</v>
-      </c>
       <c r="L499" t="s">
         <v>1095</v>
       </c>
@@ -60735,9 +60648,6 @@
       <c r="J500" t="s">
         <v>1094</v>
       </c>
-      <c r="K500" t="s">
-        <v>84</v>
-      </c>
       <c r="L500" t="s">
         <v>1095</v>
       </c>
@@ -60845,9 +60755,6 @@
       <c r="J501" t="s">
         <v>1094</v>
       </c>
-      <c r="K501" t="s">
-        <v>84</v>
-      </c>
       <c r="L501" t="s">
         <v>1095</v>
       </c>
@@ -60955,9 +60862,6 @@
       <c r="J502" t="s">
         <v>1094</v>
       </c>
-      <c r="K502" t="s">
-        <v>84</v>
-      </c>
       <c r="L502" t="s">
         <v>1095</v>
       </c>
@@ -61065,9 +60969,6 @@
       <c r="J503" t="s">
         <v>1094</v>
       </c>
-      <c r="K503" t="s">
-        <v>84</v>
-      </c>
       <c r="L503" t="s">
         <v>1095</v>
       </c>
@@ -61820,9 +61721,6 @@
       <c r="J510" t="s">
         <v>1118</v>
       </c>
-      <c r="K510" t="s">
-        <v>84</v>
-      </c>
       <c r="L510" t="s">
         <v>970</v>
       </c>
@@ -61933,9 +61831,6 @@
       <c r="J511" t="s">
         <v>1118</v>
       </c>
-      <c r="K511" t="s">
-        <v>84</v>
-      </c>
       <c r="L511" t="s">
         <v>970</v>
       </c>
@@ -73823,9 +73718,6 @@
       <c r="J615" t="s">
         <v>1273</v>
       </c>
-      <c r="K615" t="s">
-        <v>84</v>
-      </c>
       <c r="L615" t="s">
         <v>1274</v>
       </c>
@@ -73926,9 +73818,6 @@
       </c>
       <c r="J616" t="s">
         <v>1273</v>
-      </c>
-      <c r="K616" t="s">
-        <v>84</v>
       </c>
       <c r="L616" t="s">
         <v>1274</v>
